--- a/blogs.xlsx
+++ b/blogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visal.naqvi\Desktop\DB-Data-backup\mywork-space\content-posting-automation\runnerScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA3362-58E0-449B-B7B5-A6A5A3DB8A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694300C-0877-44E2-80D6-4116F2E6BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AC6F2D7-4293-4EFC-99A0-FD7CC603A9A2}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,13 +486,14 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -549,7 +550,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>

--- a/blogs.xlsx
+++ b/blogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visal.naqvi\Desktop\DB-Data-backup\mywork-space\content-posting-automation\runnerScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694300C-0877-44E2-80D6-4116F2E6BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AA48DE-2E4D-4D09-80FE-5CC92C344845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AC6F2D7-4293-4EFC-99A0-FD7CC603A9A2}"/>
   </bookViews>
@@ -86,12 +86,6 @@
     <t>CUET-UG-2025-Preparation-Strategy</t>
   </si>
   <si>
-    <t>cuet-ug</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
     <t>cuet ug</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>CUET UG 2025 Preparation: Subject-Wise Study Plan</t>
+  </si>
+  <si>
+    <t>cuet-pg</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,31 +550,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45715</v>
+        <v>45717</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2025</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -586,13 +586,13 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/blogs.xlsx
+++ b/blogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visal.naqvi\Desktop\DB-Data-backup\mywork-space\content-posting-automation\runnerScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AA48DE-2E4D-4D09-80FE-5CC92C344845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D486E-850D-47F2-9D42-F8C3F118E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AC6F2D7-4293-4EFC-99A0-FD7CC603A9A2}"/>
   </bookViews>
@@ -83,15 +83,6 @@
     <t>publish_date</t>
   </si>
   <si>
-    <t>CUET-UG-2025-Preparation-Strategy</t>
-  </si>
-  <si>
-    <t>cuet ug</t>
-  </si>
-  <si>
-    <t>students who are preparing for cuet ug exam</t>
-  </si>
-  <si>
     <t xml:space="preserve">try to be very minimal and to the point </t>
   </si>
   <si>
@@ -101,13 +92,22 @@
     <t>some-image</t>
   </si>
   <si>
-    <t>CUET UG 2025 Preparation: Subject-Wise Study Plan</t>
-  </si>
-  <si>
     <t>cuet-pg</t>
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>CUET PG 2025 Exam Pattern</t>
+  </si>
+  <si>
+    <t>CUET-PG-2025-Exam-Pattern</t>
+  </si>
+  <si>
+    <t>cuet pg</t>
+  </si>
+  <si>
+    <t>students who are preparing for cuet pg exam</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,28 +553,28 @@
         <v>45717</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>2025</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -586,13 +586,13 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
